--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.299916333333334</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H2">
-        <v>24.899749</v>
+        <v>36.958219</v>
       </c>
       <c r="I2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J2">
-        <v>0.2999832381170111</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.618147999999999</v>
+        <v>0.037013</v>
       </c>
       <c r="N2">
-        <v>19.854444</v>
+        <v>0.111039</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.003877153058804169</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.003877153058804169</v>
       </c>
       <c r="Q2">
-        <v>54.93007468161733</v>
+        <v>0.4559781866156666</v>
       </c>
       <c r="R2">
-        <v>494.3706721345559</v>
+        <v>4.103803679541</v>
       </c>
       <c r="S2">
-        <v>0.2999832381170111</v>
+        <v>0.001474003784215346</v>
       </c>
       <c r="T2">
-        <v>0.2999832381170111</v>
+        <v>0.001474003784215346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.11265066666667</v>
+        <v>12.31940633333333</v>
       </c>
       <c r="H3">
-        <v>54.337952</v>
+        <v>36.958219</v>
       </c>
       <c r="I3">
-        <v>0.6546441409351843</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="J3">
-        <v>0.6546441409351844</v>
+        <v>0.3801768364207869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,33 +617,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.618147999999999</v>
+        <v>9.509424666666666</v>
       </c>
       <c r="N3">
-        <v>19.854444</v>
+        <v>28.528274</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9961228469411958</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9961228469411958</v>
       </c>
       <c r="Q3">
-        <v>119.8722027842987</v>
+        <v>117.1504664648895</v>
       </c>
       <c r="R3">
-        <v>1078.849825058688</v>
+        <v>1054.354198184006</v>
       </c>
       <c r="S3">
-        <v>0.6546441409351843</v>
+        <v>0.3787028326365715</v>
       </c>
       <c r="T3">
-        <v>0.6546441409351844</v>
+        <v>0.3787028326365715</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.193828666666667</v>
+        <v>18.11265066666666</v>
       </c>
       <c r="H4">
-        <v>3.581486</v>
+        <v>54.33795199999999</v>
       </c>
       <c r="I4">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="J4">
-        <v>0.04314845774351948</v>
+        <v>0.5589563363143816</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.618147999999999</v>
+        <v>0.037013</v>
       </c>
       <c r="N4">
-        <v>19.854444</v>
+        <v>0.111039</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.003877153058804169</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.003877153058804169</v>
       </c>
       <c r="Q4">
-        <v>7.900934802642666</v>
+        <v>0.6704035391253331</v>
       </c>
       <c r="R4">
-        <v>71.10841322378398</v>
+        <v>6.033631852127999</v>
       </c>
       <c r="S4">
-        <v>0.04314845774351948</v>
+        <v>0.002167159269079276</v>
       </c>
       <c r="T4">
-        <v>0.04314845774351948</v>
+        <v>0.002167159269079276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.11265066666666</v>
+      </c>
+      <c r="H5">
+        <v>54.33795199999999</v>
+      </c>
+      <c r="I5">
+        <v>0.5589563363143816</v>
+      </c>
+      <c r="J5">
+        <v>0.5589563363143816</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.509424666666666</v>
+      </c>
+      <c r="N5">
+        <v>28.528274</v>
+      </c>
+      <c r="O5">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="P5">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="Q5">
+        <v>172.2408870283164</v>
+      </c>
+      <c r="R5">
+        <v>1550.167983254848</v>
+      </c>
+      <c r="S5">
+        <v>0.5567891770453023</v>
+      </c>
+      <c r="T5">
+        <v>0.5567891770453023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.603212</v>
+      </c>
+      <c r="H6">
+        <v>4.809636</v>
+      </c>
+      <c r="I6">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="J6">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.061538</v>
-      </c>
-      <c r="H5">
-        <v>0.184614</v>
-      </c>
-      <c r="I5">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="J5">
-        <v>0.002224163204285067</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>6.618147999999999</v>
-      </c>
-      <c r="N5">
-        <v>19.854444</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.4072675916239999</v>
-      </c>
-      <c r="R5">
-        <v>3.665408324616</v>
-      </c>
-      <c r="S5">
-        <v>0.002224163204285066</v>
-      </c>
-      <c r="T5">
-        <v>0.002224163204285067</v>
+      <c r="M6">
+        <v>0.037013</v>
+      </c>
+      <c r="N6">
+        <v>0.111039</v>
+      </c>
+      <c r="O6">
+        <v>0.003877153058804169</v>
+      </c>
+      <c r="P6">
+        <v>0.003877153058804169</v>
+      </c>
+      <c r="Q6">
+        <v>0.059339685756</v>
+      </c>
+      <c r="R6">
+        <v>0.534057171804</v>
+      </c>
+      <c r="S6">
+        <v>0.0001918226001284954</v>
+      </c>
+      <c r="T6">
+        <v>0.0001918226001284954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.603212</v>
+      </c>
+      <c r="H7">
+        <v>4.809636</v>
+      </c>
+      <c r="I7">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="J7">
+        <v>0.04947511672073613</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.509424666666666</v>
+      </c>
+      <c r="N7">
+        <v>28.528274</v>
+      </c>
+      <c r="O7">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="P7">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="Q7">
+        <v>15.245623738696</v>
+      </c>
+      <c r="R7">
+        <v>137.210613648264</v>
+      </c>
+      <c r="S7">
+        <v>0.04928329412060763</v>
+      </c>
+      <c r="T7">
+        <v>0.04928329412060763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3691416666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.107425</v>
+      </c>
+      <c r="I8">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="J8">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.037013</v>
+      </c>
+      <c r="N8">
+        <v>0.111039</v>
+      </c>
+      <c r="O8">
+        <v>0.003877153058804169</v>
+      </c>
+      <c r="P8">
+        <v>0.003877153058804169</v>
+      </c>
+      <c r="Q8">
+        <v>0.01366304050833333</v>
+      </c>
+      <c r="R8">
+        <v>0.122967364575</v>
+      </c>
+      <c r="S8">
+        <v>4.416740538105149E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.416740538105149E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3691416666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.107425</v>
+      </c>
+      <c r="I9">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="J9">
+        <v>0.01139171054409548</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.509424666666666</v>
+      </c>
+      <c r="N9">
+        <v>28.528274</v>
+      </c>
+      <c r="O9">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="P9">
+        <v>0.9961228469411958</v>
+      </c>
+      <c r="Q9">
+        <v>3.510324870494444</v>
+      </c>
+      <c r="R9">
+        <v>31.59292383444999</v>
+      </c>
+      <c r="S9">
+        <v>0.01134754313871443</v>
+      </c>
+      <c r="T9">
+        <v>0.01134754313871443</v>
       </c>
     </row>
   </sheetData>
